--- a/teaching/traditional_assets/database/data/chile/chile_real_estate_development.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_real_estate_development.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.278</v>
+        <v>0.277</v>
       </c>
       <c r="E2">
-        <v>-0.191</v>
+        <v>0.0493</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,100 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.3834586466165413</v>
+        <v>-1.611009174311927</v>
       </c>
       <c r="J2">
-        <v>-0.3111405835543766</v>
+        <v>-1.239425874622378</v>
       </c>
       <c r="K2">
-        <v>3.06</v>
+        <v>5.08</v>
       </c>
       <c r="L2">
-        <v>3.286788399570354</v>
+        <v>9.321100917431192</v>
       </c>
       <c r="M2">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.006788079470198675</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.06699346405228758</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.006788079470198675</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.06699346405228758</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>1.7</v>
+        <v>0.915</v>
       </c>
       <c r="V2">
-        <v>0.05629139072847682</v>
+        <v>0.03009868421052632</v>
       </c>
       <c r="W2">
-        <v>0.03315276273022752</v>
+        <v>0.05893271461716938</v>
       </c>
       <c r="X2">
-        <v>0.05671495401608494</v>
+        <v>0.03756833553445338</v>
       </c>
       <c r="Y2">
-        <v>-0.02356219128585742</v>
+        <v>0.021364379082716</v>
       </c>
       <c r="Z2">
-        <v>0.0103836716484497</v>
+        <v>0.006446576217456619</v>
       </c>
       <c r="AA2">
-        <v>-0.003230781656135675</v>
+        <v>-0.007990053366640989</v>
       </c>
       <c r="AB2">
-        <v>0.05667179420094425</v>
+        <v>0.03755771546865593</v>
       </c>
       <c r="AC2">
-        <v>-0.05990257585707993</v>
+        <v>-0.04554776883529692</v>
       </c>
       <c r="AD2">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="AG2">
-        <v>-1.659</v>
+        <v>-0.886</v>
       </c>
       <c r="AH2">
-        <v>0.001355775271981747</v>
+        <v>0.0009530382201189656</v>
       </c>
       <c r="AI2">
-        <v>0.0004754119270416623</v>
+        <v>0.0003414616915305726</v>
       </c>
       <c r="AJ2">
-        <v>-0.058126905153989</v>
+        <v>-0.03001965169072305</v>
       </c>
       <c r="AK2">
-        <v>-0.01962361457754226</v>
+        <v>-0.0105458614040517</v>
       </c>
       <c r="AL2">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AM2">
-        <v>-0.053</v>
+        <v>-0.011</v>
       </c>
       <c r="AO2">
-        <v>-178.5</v>
+        <v>-292.6666666666667</v>
       </c>
       <c r="AQ2">
-        <v>6.735849056603773</v>
+        <v>79.81818181818183</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.278</v>
+        <v>0.277</v>
       </c>
       <c r="E3">
-        <v>-0.191</v>
+        <v>0.0493</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +728,100 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.3834586466165413</v>
+        <v>-1.611009174311927</v>
       </c>
       <c r="J3">
-        <v>-0.3111405835543766</v>
+        <v>-1.239425874622378</v>
       </c>
       <c r="K3">
-        <v>3.06</v>
+        <v>5.08</v>
       </c>
       <c r="L3">
-        <v>3.286788399570354</v>
+        <v>9.321100917431192</v>
       </c>
       <c r="M3">
-        <v>0.205</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.006788079470198675</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.06699346405228758</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.205</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.006788079470198675</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.06699346405228758</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>0.915</v>
       </c>
       <c r="V3">
-        <v>0.05629139072847682</v>
+        <v>0.03009868421052632</v>
       </c>
       <c r="W3">
-        <v>0.03315276273022752</v>
+        <v>0.05893271461716938</v>
       </c>
       <c r="X3">
-        <v>0.05671495401608494</v>
+        <v>0.03756833553445338</v>
       </c>
       <c r="Y3">
-        <v>-0.02356219128585742</v>
+        <v>0.021364379082716</v>
       </c>
       <c r="Z3">
-        <v>0.0103836716484497</v>
+        <v>0.006446576217456619</v>
       </c>
       <c r="AA3">
-        <v>-0.003230781656135675</v>
+        <v>-0.007990053366640989</v>
       </c>
       <c r="AB3">
-        <v>0.05667179420094425</v>
+        <v>0.03755771546865593</v>
       </c>
       <c r="AC3">
-        <v>-0.05990257585707993</v>
+        <v>-0.04554776883529692</v>
       </c>
       <c r="AD3">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="AG3">
-        <v>-1.659</v>
+        <v>-0.886</v>
       </c>
       <c r="AH3">
-        <v>0.001355775271981747</v>
+        <v>0.0009530382201189656</v>
       </c>
       <c r="AI3">
-        <v>0.0004754119270416623</v>
+        <v>0.0003414616915305726</v>
       </c>
       <c r="AJ3">
-        <v>-0.058126905153989</v>
+        <v>-0.03001965169072305</v>
       </c>
       <c r="AK3">
-        <v>-0.01962361457754226</v>
+        <v>-0.0105458614040517</v>
       </c>
       <c r="AL3">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AM3">
-        <v>-0.053</v>
+        <v>-0.011</v>
       </c>
       <c r="AO3">
-        <v>-178.5</v>
+        <v>-292.6666666666667</v>
       </c>
       <c r="AQ3">
-        <v>6.735849056603773</v>
+        <v>79.81818181818183</v>
       </c>
     </row>
   </sheetData>
